--- a/step4-Statistic.xlsx
+++ b/step4-Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1EED92-0CA5-4F52-8D2C-F3881B4C6553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8887C375-0B46-4153-8EFE-E459F2ADA5AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Z25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,12 +742,12 @@
         <v>0</v>
       </c>
       <c r="Q2" s="6">
-        <f>P2-1.96*O2/SQRT(30)</f>
+        <f>P2-2.045*O2/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6">
-        <f>P2+1.96*O2/SQRT(30)</f>
+        <f>P2+2.045*O2/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="T2" s="6"/>
@@ -760,12 +760,12 @@
         <v>0</v>
       </c>
       <c r="W2" s="6">
-        <f>V2-1.96*U2/SQRT(30)</f>
+        <f>V2-2.045*U2/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6">
-        <f>V2+1.96*U2/SQRT(30)</f>
+        <f>V2+2.045*U2/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="6"/>
@@ -817,12 +817,12 @@
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>P3-1.96*O3/SQRT(30)</f>
+        <f t="shared" ref="Q3:Q25" si="0">P3-2.045*O3/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6">
-        <f>P3+1.96*O3/SQRT(30)</f>
+        <f t="shared" ref="S3:S25" si="1">P3+2.045*O3/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="T3" s="6"/>
@@ -835,12 +835,12 @@
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f>V3-1.96*U3/SQRT(30)</f>
+        <f t="shared" ref="W3:W25" si="2">V3-2.045*U3/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="6">
-        <f>V3+1.96*U3/SQRT(30)</f>
+        <f t="shared" ref="Y3:Y25" si="3">V3+2.045*U3/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="6"/>
@@ -892,13 +892,13 @@
         <v>0.59455556250788211</v>
       </c>
       <c r="Q4" s="6">
-        <f>P4-1.96*O4/SQRT(30)</f>
-        <v>0.52956425839871746</v>
+        <f t="shared" si="0"/>
+        <v>0.52674575796541179</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6">
-        <f>P4+1.96*O4/SQRT(30)</f>
-        <v>0.65954686661704676</v>
+        <f t="shared" si="1"/>
+        <v>0.66236536705035243</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4">
@@ -910,13 +910,13 @@
         <v>3.8251593443843475</v>
       </c>
       <c r="W4" s="6">
-        <f>V4-1.96*U4/SQRT(30)</f>
-        <v>3.4375328238114462</v>
+        <f t="shared" si="2"/>
+        <v>3.4207224900110909</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6">
-        <f>V4+1.96*U4/SQRT(30)</f>
-        <v>4.2127858649572483</v>
+        <f t="shared" si="3"/>
+        <v>4.2295961987576041</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
@@ -967,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="Q5" s="6">
-        <f>P5-1.96*O5/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6">
-        <f>P5+1.96*O5/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="6"/>
@@ -985,12 +985,12 @@
         <v>0</v>
       </c>
       <c r="W5" s="6">
-        <f>V5-1.96*U5/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6">
-        <f>V5+1.96*U5/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5" s="6"/>
@@ -1042,12 +1042,12 @@
         <v>1</v>
       </c>
       <c r="Q6" s="6">
-        <f>P6-1.96*O6/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6">
-        <f>P6+1.96*O6/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T6" s="6"/>
@@ -1060,12 +1060,12 @@
         <v>1.0000000000000044</v>
       </c>
       <c r="W6" s="6">
-        <f>V6-1.96*U6/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000000027</v>
       </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="6">
-        <f>V6+1.96*U6/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000062</v>
       </c>
       <c r="Z6" s="6"/>
@@ -1116,13 +1116,13 @@
         <v>1.594555562507882</v>
       </c>
       <c r="Q7" s="6">
-        <f>P7-1.96*O7/SQRT(30)</f>
-        <v>1.5295642583987188</v>
+        <f t="shared" si="0"/>
+        <v>1.5267457579654131</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6">
-        <f>P7+1.96*O7/SQRT(30)</f>
-        <v>1.6595468666170452</v>
+        <f t="shared" si="1"/>
+        <v>1.6623653670503509</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7">
@@ -1134,13 +1134,13 @@
         <v>4.8251593443843461</v>
       </c>
       <c r="W7" s="6">
-        <f>V7-1.96*U7/SQRT(30)</f>
-        <v>4.4375328238114422</v>
+        <f t="shared" si="2"/>
+        <v>4.4207224900110864</v>
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="6">
-        <f>V7+1.96*U7/SQRT(30)</f>
-        <v>5.21278586495725</v>
+        <f t="shared" si="3"/>
+        <v>5.2295961987576058</v>
       </c>
       <c r="Z7" s="6"/>
     </row>
@@ -1190,13 +1190,13 @@
         <v>0.56056526541414686</v>
       </c>
       <c r="Q8" s="6">
-        <f>P8-1.96*O8/SQRT(30)</f>
-        <v>0.49201014837520973</v>
+        <f t="shared" si="0"/>
+        <v>0.48903709483015378</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6">
-        <f>P8+1.96*O8/SQRT(30)</f>
-        <v>0.62912038245308399</v>
+        <f t="shared" si="1"/>
+        <v>0.63209343599813994</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8">
@@ -1208,13 +1208,13 @@
         <v>2.8582748332634691</v>
       </c>
       <c r="W8" s="6">
-        <f>V8-1.96*U8/SQRT(30)</f>
-        <v>2.547483947551652</v>
+        <f t="shared" si="2"/>
+        <v>2.5340057713855781</v>
       </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6">
-        <f>V8+1.96*U8/SQRT(30)</f>
-        <v>3.1690657189752862</v>
+        <f t="shared" si="3"/>
+        <v>3.18254389514136</v>
       </c>
       <c r="Z8" s="6"/>
     </row>
@@ -1264,13 +1264,13 @@
         <v>0.59815801661073975</v>
       </c>
       <c r="Q9" s="6">
-        <f>P9-1.96*O9/SQRT(30)</f>
-        <v>0.49031442109491274</v>
+        <f t="shared" si="0"/>
+        <v>0.48563753047305286</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6">
-        <f>P9+1.96*O9/SQRT(30)</f>
-        <v>0.70600161212656676</v>
+        <f t="shared" si="1"/>
+        <v>0.71067850274842659</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9">
@@ -1282,13 +1282,13 @@
         <v>2.9906574412446312</v>
       </c>
       <c r="W9" s="6">
-        <f>V9-1.96*U9/SQRT(30)</f>
-        <v>2.650309704743488</v>
+        <f t="shared" si="2"/>
+        <v>2.635549726374816</v>
       </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6">
-        <f>V9+1.96*U9/SQRT(30)</f>
-        <v>3.3310051777457743</v>
+        <f t="shared" si="3"/>
+        <v>3.3457651561144464</v>
       </c>
       <c r="Z9" s="6"/>
     </row>
@@ -1338,13 +1338,13 @@
         <v>0.56864661966733654</v>
       </c>
       <c r="Q10" s="6">
-        <f>P10-1.96*O10/SQRT(30)</f>
-        <v>0.42865300849255578</v>
+        <f t="shared" si="0"/>
+        <v>0.42258185698752704</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6">
-        <f>P10+1.96*O10/SQRT(30)</f>
-        <v>0.70864023084211736</v>
+        <f t="shared" si="1"/>
+        <v>0.71471138234714604</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10">
@@ -1356,13 +1356,13 @@
         <v>2.8592472850633057</v>
       </c>
       <c r="W10" s="6">
-        <f>V10-1.96*U10/SQRT(30)</f>
-        <v>2.3881319617737398</v>
+        <f t="shared" si="2"/>
+        <v>2.3677009401004678</v>
       </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="6">
-        <f>V10+1.96*U10/SQRT(30)</f>
-        <v>3.3303626083528717</v>
+        <f t="shared" si="3"/>
+        <v>3.3507936300261436</v>
       </c>
       <c r="Z10" s="6"/>
     </row>
@@ -1412,13 +1412,13 @@
         <v>2.5431541398448672</v>
       </c>
       <c r="Q11" s="6">
-        <f>P11-1.96*O11/SQRT(30)</f>
-        <v>2.3814961334440121</v>
+        <f t="shared" si="0"/>
+        <v>2.3744854545949954</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6">
-        <f>P11+1.96*O11/SQRT(30)</f>
-        <v>2.7048121462457222</v>
+        <f t="shared" si="1"/>
+        <v>2.7118228250947389</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11">
@@ -1430,13 +1430,13 @@
         <v>8.6333333333333329</v>
       </c>
       <c r="W11" s="6">
-        <f>V11-1.96*U11/SQRT(30)</f>
-        <v>8.2080172957791788</v>
+        <f t="shared" si="2"/>
+        <v>8.1895724676199428</v>
       </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6">
-        <f>V11+1.96*U11/SQRT(30)</f>
-        <v>9.0586493708874869</v>
+        <f t="shared" si="3"/>
+        <v>9.0770941990467229</v>
       </c>
       <c r="Z11" s="6"/>
     </row>
@@ -1486,13 +1486,13 @@
         <v>0.54993558326029435</v>
       </c>
       <c r="Q12" s="6">
-        <f>P12-1.96*O12/SQRT(30)</f>
-        <v>0.51945033557689446</v>
+        <f t="shared" si="0"/>
+        <v>0.51812827126409389</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6">
-        <f>P12+1.96*O12/SQRT(30)</f>
-        <v>0.58042083094369423</v>
+        <f t="shared" si="1"/>
+        <v>0.58174289525649481</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12">
@@ -1504,12 +1504,12 @@
         <v>1</v>
       </c>
       <c r="W12" s="6">
-        <f>V12-1.96*U12/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="6">
-        <f>V12+1.96*U12/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z12" s="6"/>
@@ -1560,12 +1560,12 @@
         <v>1</v>
       </c>
       <c r="Q13" s="6">
-        <f>P13-1.96*O13/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6">
-        <f>P13+1.96*O13/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T13" s="6"/>
@@ -1578,12 +1578,12 @@
         <v>1</v>
       </c>
       <c r="W13" s="6">
-        <f>V13-1.96*U13/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6">
-        <f>V13+1.96*U13/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z13" s="6"/>
@@ -1634,13 +1634,13 @@
         <v>0.54993558326029435</v>
       </c>
       <c r="Q14" s="6">
-        <f>P14-1.96*O14/SQRT(30)</f>
-        <v>0.51945033557689446</v>
+        <f t="shared" si="0"/>
+        <v>0.51812827126409389</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6">
-        <f>P14+1.96*O14/SQRT(30)</f>
-        <v>0.58042083094369423</v>
+        <f t="shared" si="1"/>
+        <v>0.58174289525649481</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14">
@@ -1652,12 +1652,12 @@
         <v>1</v>
       </c>
       <c r="W14" s="6">
-        <f>V14-1.96*U14/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6">
-        <f>V14+1.96*U14/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z14" s="6"/>
@@ -1708,13 +1708,13 @@
         <v>0.50929478836493425</v>
       </c>
       <c r="Q15" s="6">
-        <f>P15-1.96*O15/SQRT(30)</f>
-        <v>0.48359484607569281</v>
+        <f t="shared" si="0"/>
+        <v>0.48248030776212875</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6">
-        <f>P15+1.96*O15/SQRT(30)</f>
-        <v>0.53499473065417569</v>
+        <f t="shared" si="1"/>
+        <v>0.53610926896773969</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15">
@@ -1726,12 +1726,12 @@
         <v>1</v>
       </c>
       <c r="W15" s="6">
-        <f>V15-1.96*U15/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6">
-        <f>V15+1.96*U15/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z15" s="6"/>
@@ -1782,12 +1782,12 @@
         <v>1</v>
       </c>
       <c r="Q16" s="6">
-        <f>P16-1.96*O16/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6">
-        <f>P16+1.96*O16/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T16" s="6"/>
@@ -1800,12 +1800,12 @@
         <v>1</v>
       </c>
       <c r="W16" s="6">
-        <f>V16-1.96*U16/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="6">
-        <f>V16+1.96*U16/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z16" s="6"/>
@@ -1856,13 +1856,13 @@
         <v>0.50929478836493425</v>
       </c>
       <c r="Q17" s="6">
-        <f>P17-1.96*O17/SQRT(30)</f>
-        <v>0.48359484607569281</v>
+        <f t="shared" si="0"/>
+        <v>0.48248030776212875</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6">
-        <f>P17+1.96*O17/SQRT(30)</f>
-        <v>0.53499473065417569</v>
+        <f t="shared" si="1"/>
+        <v>0.53610926896773969</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17">
@@ -1874,12 +1874,12 @@
         <v>1</v>
       </c>
       <c r="W17" s="6">
-        <f>V17-1.96*U17/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6">
-        <f>V17+1.96*U17/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z17" s="6"/>
@@ -1930,13 +1930,13 @@
         <v>0.52399687942999262</v>
       </c>
       <c r="Q18" s="6">
-        <f>P18-1.96*O18/SQRT(30)</f>
-        <v>0.50081564578811177</v>
+        <f t="shared" si="0"/>
+        <v>0.49981033718629553</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6">
-        <f>P18+1.96*O18/SQRT(30)</f>
-        <v>0.54717811307187347</v>
+        <f t="shared" si="1"/>
+        <v>0.54818342167368972</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18">
@@ -1948,12 +1948,12 @@
         <v>1</v>
       </c>
       <c r="W18" s="6">
-        <f>V18-1.96*U18/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="6">
-        <f>V18+1.96*U18/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z18" s="6"/>
@@ -2004,12 +2004,12 @@
         <v>1</v>
       </c>
       <c r="Q19" s="6">
-        <f>P19-1.96*O19/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6">
-        <f>P19+1.96*O19/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T19" s="6"/>
@@ -2022,12 +2022,12 @@
         <v>1</v>
       </c>
       <c r="W19" s="6">
-        <f>V19-1.96*U19/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6">
-        <f>V19+1.96*U19/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z19" s="6"/>
@@ -2078,13 +2078,13 @@
         <v>0.52399687942999262</v>
       </c>
       <c r="Q20" s="6">
-        <f>P20-1.96*O20/SQRT(30)</f>
-        <v>0.50081564578811177</v>
+        <f t="shared" si="0"/>
+        <v>0.49981033718629553</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6">
-        <f>P20+1.96*O20/SQRT(30)</f>
-        <v>0.54717811307187347</v>
+        <f t="shared" si="1"/>
+        <v>0.54818342167368972</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20">
@@ -2096,12 +2096,12 @@
         <v>1</v>
       </c>
       <c r="W20" s="6">
-        <f>V20-1.96*U20/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="6">
-        <f>V20+1.96*U20/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z20" s="6"/>
@@ -2152,13 +2152,13 @@
         <v>0.30261984119698526</v>
       </c>
       <c r="Q21" s="6">
-        <f>P21-1.96*O21/SQRT(30)</f>
-        <v>0.25837953231044775</v>
+        <f t="shared" si="0"/>
+        <v>0.25646094748628667</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6">
-        <f>P21+1.96*O21/SQRT(30)</f>
-        <v>0.34686015008352278</v>
+        <f t="shared" si="1"/>
+        <v>0.34877873490768385</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21">
@@ -2170,13 +2170,13 @@
         <v>3.3666666666666667</v>
       </c>
       <c r="W21" s="6">
-        <f>V21-1.96*U21/SQRT(30)</f>
-        <v>3.0346371245198309</v>
+        <f t="shared" si="2"/>
+        <v>3.0202378841716264</v>
       </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6">
-        <f>V21+1.96*U21/SQRT(30)</f>
-        <v>3.6986962088135025</v>
+        <f t="shared" si="3"/>
+        <v>3.713095449161707</v>
       </c>
       <c r="Z21" s="6"/>
     </row>
@@ -2226,13 +2226,13 @@
         <v>0.35051378335057509</v>
       </c>
       <c r="Q22" s="6">
-        <f>P22-1.96*O22/SQRT(30)</f>
-        <v>0.26722506329010526</v>
+        <f t="shared" si="0"/>
+        <v>0.2636130524711563</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6">
-        <f>P22+1.96*O22/SQRT(30)</f>
-        <v>0.43380250341104493</v>
+        <f t="shared" si="1"/>
+        <v>0.43741451422999389</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22">
@@ -2244,13 +2244,13 @@
         <v>3.5333333333333332</v>
       </c>
       <c r="W22" s="6">
-        <f>V22-1.96*U22/SQRT(30)</f>
-        <v>3.1979955440071204</v>
+        <f t="shared" si="2"/>
+        <v>3.1834528337557284</v>
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6">
-        <f>V22+1.96*U22/SQRT(30)</f>
-        <v>3.868671122659546</v>
+        <f t="shared" si="3"/>
+        <v>3.883213832910938</v>
       </c>
       <c r="Z22" s="6"/>
     </row>
@@ -2300,13 +2300,13 @@
         <v>0.30679326424208642</v>
       </c>
       <c r="Q23" s="6">
-        <f>P23-1.96*O23/SQRT(30)</f>
-        <v>0.22191286604095092</v>
+        <f t="shared" si="0"/>
+        <v>0.21823182836386087</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6">
-        <f>P23+1.96*O23/SQRT(30)</f>
-        <v>0.39167366244322188</v>
+        <f t="shared" si="1"/>
+        <v>0.39535470012031193</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23">
@@ -2318,13 +2318,13 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="W23" s="6">
-        <f>V23-1.96*U23/SQRT(30)</f>
-        <v>2.824363372082241</v>
+        <f t="shared" si="2"/>
+        <v>2.8022906951912496</v>
       </c>
       <c r="X23" s="6"/>
       <c r="Y23" s="6">
-        <f>V23+1.96*U23/SQRT(30)</f>
-        <v>3.842303294584426</v>
+        <f t="shared" si="3"/>
+        <v>3.8643759714754173</v>
       </c>
       <c r="Z23" s="6"/>
     </row>
@@ -2374,12 +2374,12 @@
         <v>0</v>
       </c>
       <c r="Q24" s="6">
-        <f>P24-1.96*O24/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6">
-        <f>P24+1.96*O24/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="6"/>
@@ -2392,12 +2392,12 @@
         <v>0</v>
       </c>
       <c r="W24" s="6">
-        <f>V24-1.96*U24/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6">
-        <f>V24+1.96*U24/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z24" s="6"/>
@@ -2448,12 +2448,12 @@
         <v>0</v>
       </c>
       <c r="Q25" s="6">
-        <f>P25-1.96*O25/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6">
-        <f>P25+1.96*O25/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="6"/>
@@ -2466,12 +2466,12 @@
         <v>0</v>
       </c>
       <c r="W25" s="6">
-        <f>V25-1.96*U25/SQRT(30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6">
-        <f>V25+1.96*U25/SQRT(30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z25" s="6"/>
